--- a/parser_categorizer/test_csv_files/Capstone 2022 data.xlsx
+++ b/parser_categorizer/test_csv_files/Capstone 2022 data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kh882\Documents\CS\demo-agbizlogic\parser_categorizer\test_csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B712E59-79CA-4E58-A374-3DCB5BC5B858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC4C502-6ABF-47D2-A202-B4978310B95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ABL key" sheetId="3" r:id="rId1"/>
-    <sheet name="itemized expenses" sheetId="1" r:id="rId2"/>
-    <sheet name="income and expenses" sheetId="2" r:id="rId3"/>
+    <sheet name="itemized expenses" sheetId="1" r:id="rId1"/>
+    <sheet name="income and expenses" sheetId="2" r:id="rId2"/>
+    <sheet name="ABL key" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -847,13 +847,1216 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>4106767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1518000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>705000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3357767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>18966.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4">
+        <v>12797.82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2375.29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4">
+        <v>11034.33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1049.8499999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3901.22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5581</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="4">
+        <v>39246.6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="4">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="4">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2616.1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="4">
+        <v>5429.94</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2704.92</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="4">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="4">
+        <v>59674.54</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="4">
+        <v>18548.009999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="4">
+        <v>6744.57</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="4">
+        <v>16623.29</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="4">
+        <v>37983.14</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="4">
+        <v>9156.6299999999992</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="4">
+        <v>7487.81</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="1">
+        <v>680.83</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="4">
+        <v>19161.82</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="4">
+        <v>648209.44999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="4">
+        <v>17140</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="4">
+        <v>32391.63</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="4">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="4">
+        <v>16431.11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="4">
+        <v>3861.37</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="4">
+        <v>30553.24</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="1">
+        <v>785.91</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="4">
+        <v>5775.79</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="4">
+        <v>11016.36</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="4">
+        <v>11905.34</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="4">
+        <v>7628.05</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="4">
+        <v>8108.05</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="4">
+        <v>25458.400000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="1">
+        <v>732.32</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="1">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="4">
+        <v>12633.24</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" s="4">
+        <v>3542.96</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="4">
+        <v>10902.15</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1996.26</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" s="4">
+        <v>2725.22</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69" s="4">
+        <v>2116.58</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" s="4">
+        <v>10015.5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D71" s="4">
+        <v>143809.85999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" s="4">
+        <v>24418.75</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" s="1">
+        <v>890.78</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" s="1">
+        <v>245.93</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" s="4">
+        <v>49451.77</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" s="4">
+        <v>25947.42</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D78" s="4">
+        <v>12148.09</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" s="4">
+        <v>3055.5</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1096.28</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D81" s="4">
+        <v>2110.5</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" s="1">
+        <v>245.5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83" s="1">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D85" s="4">
+        <v>36903.49</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D86" s="4">
+        <v>7268.73</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D87" s="4">
+        <v>2095.9899999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D88" s="4">
+        <v>10366.33</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D89" s="4">
+        <v>10032.93</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90" s="1">
+        <v>352.8</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1365.5</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D92" s="4">
+        <v>-1558.5</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D93" s="1">
+        <v>149.63999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="1"/>
+      <c r="D95" s="5">
+        <v>1607919</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:G62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="4">
+        <v>43990.239999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="4">
+        <v>46360.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="4">
+        <v>70625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="4">
+        <v>10605.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="4">
+        <v>16063.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="4">
+        <v>110694.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1336.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="4">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="4">
+        <v>23501.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="4">
+        <v>22753.39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4">
+        <v>548366.56999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="4">
+        <v>118948.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="4">
+        <v>24686.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="1">
+        <v>946.93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="4">
+        <v>119191.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="4">
+        <v>69964.81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="4">
+        <v>7530.62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1989.22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="4">
+        <v>42082.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="4">
+        <v>14837.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1311373.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3579789</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4061881</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="2">
+        <v>4106767</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4416710</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" s="3">
+        <v>401.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="3">
+        <v>192338.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="3">
+        <v>158752.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" s="3">
+        <v>351835.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" s="3">
+        <v>39229.39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G39" s="3">
+        <v>54682</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40" s="3">
+        <v>64583.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="3">
+        <v>4861.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43" s="3">
+        <v>40452.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G44" s="3">
+        <v>57614.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1353.72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="3">
+        <v>19364.259999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G47" s="3">
+        <v>20201.63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="3">
+        <v>145976.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G49" s="3">
+        <v>54943.35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G50" s="3">
+        <v>4586.8999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G51" s="3">
+        <v>224626.15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G52" s="3">
+        <v>202170.29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G53" s="3">
+        <v>241285.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G54" s="3">
+        <v>17929</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G55" s="3">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G56" s="3">
+        <v>94454</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G57" s="3">
+        <v>47734.03</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G58" s="3">
+        <v>10608.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1710.17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G60" s="3">
+        <v>-7854.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G62" s="3">
+        <v>2047588.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -2012,1207 +3215,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D95"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2">
-        <v>4106767</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1518000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>705000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3357767</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="3">
-        <v>18966.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="4">
-        <v>12797.82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2375.29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="4">
-        <v>3580</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="4">
-        <v>11034.33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1049.8499999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="4">
-        <v>3901.22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="4">
-        <v>5581</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1952</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2251</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="4">
-        <v>5023</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="4">
-        <v>39246.6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="4">
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="4">
-        <v>15900</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="4">
-        <v>2616.1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="4">
-        <v>5429.94</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="4">
-        <v>2704.92</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="4">
-        <v>4518</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="4">
-        <v>59674.54</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="4">
-        <v>18548.009999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="4">
-        <v>6744.57</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="4">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="4">
-        <v>16623.29</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="4">
-        <v>37983.14</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="4">
-        <v>9156.6299999999992</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="4">
-        <v>7487.81</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="1">
-        <v>680.83</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="4">
-        <v>19161.82</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="1">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" s="4">
-        <v>648209.44999999995</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="4">
-        <v>17140</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="1">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="4">
-        <v>32391.63</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" s="4">
-        <v>82000</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" s="4">
-        <v>16431.11</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="4">
-        <v>3861.37</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" s="4">
-        <v>30553.24</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" s="1">
-        <v>785.91</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D55" s="4">
-        <v>5775.79</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="4">
-        <v>11016.36</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" s="4">
-        <v>11905.34</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D58" s="4">
-        <v>7628.05</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D60" s="4">
-        <v>8108.05</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D61" s="4">
-        <v>25458.400000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D62" s="1">
-        <v>732.32</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D63" s="1">
-        <v>26.1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D64" s="4">
-        <v>12633.24</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D65" s="4">
-        <v>3542.96</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D66" s="4">
-        <v>10902.15</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D67" s="4">
-        <v>1996.26</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D68" s="4">
-        <v>2725.22</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D69" s="4">
-        <v>2116.58</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D70" s="4">
-        <v>10015.5</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D71" s="4">
-        <v>143809.85999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72" s="4">
-        <v>24418.75</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D73" s="1">
-        <v>890.78</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D74" s="1">
-        <v>245.93</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D75" s="4">
-        <v>49451.77</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D76" s="4">
-        <v>25947.42</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D77" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D78" s="4">
-        <v>12148.09</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D79" s="4">
-        <v>3055.5</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D80" s="4">
-        <v>1096.28</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D81" s="4">
-        <v>2110.5</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D82" s="1">
-        <v>245.5</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D83" s="1">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D84" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D85" s="4">
-        <v>36903.49</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D86" s="4">
-        <v>7268.73</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D87" s="4">
-        <v>2095.9899999999998</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D88" s="4">
-        <v>10366.33</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D89" s="4">
-        <v>10032.93</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D90" s="1">
-        <v>352.8</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D91" s="4">
-        <v>1365.5</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D92" s="4">
-        <v>-1558.5</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D93" s="1">
-        <v>149.63999999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
-      <c r="D95" s="5">
-        <v>1607919</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:G62"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="4">
-        <v>43990.239999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="4">
-        <v>46360.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="4">
-        <v>70625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="4">
-        <v>10605.63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="4">
-        <v>16063.52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="4">
-        <v>110694.46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1336.04</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="4">
-        <v>14800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="4">
-        <v>23501.37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="4">
-        <v>22753.39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="4">
-        <v>548366.56999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="4">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="4">
-        <v>118948.26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="4">
-        <v>24686.62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="1">
-        <v>946.93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="4">
-        <v>119191.08</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="4">
-        <v>69964.81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="4">
-        <v>7530.62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1989.22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="4">
-        <v>42082.06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="4">
-        <v>14837.05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1311373.82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="2">
-        <v>3579789</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="2">
-        <v>4061881</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="2">
-        <v>4106767</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="2">
-        <v>4416710</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G34" s="3">
-        <v>401.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G35" s="3">
-        <v>192338.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G36" s="3">
-        <v>158752.25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G37" s="3">
-        <v>351835.25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G38" s="3">
-        <v>39229.39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G39" s="3">
-        <v>54682</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G40" s="3">
-        <v>64583.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G41" s="3">
-        <v>4861.25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G43" s="3">
-        <v>40452.75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G44" s="3">
-        <v>57614.25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1353.72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G46" s="3">
-        <v>19364.259999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G47" s="3">
-        <v>20201.63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G48" s="3">
-        <v>145976.25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G49" s="3">
-        <v>54943.35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G50" s="3">
-        <v>4586.8999999999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G51" s="3">
-        <v>224626.15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G52" s="3">
-        <v>202170.29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G53" s="3">
-        <v>241285.3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G54" s="3">
-        <v>17929</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G55" s="3">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G56" s="3">
-        <v>94454</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G57" s="3">
-        <v>47734.03</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G58" s="3">
-        <v>10608.4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1710.17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G60" s="3">
-        <v>-7854.9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G62" s="3">
-        <v>2047588.09</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>